--- a/natmiOut/YoungD2/LR-pairs_lrc2p/Gnas-Vipr1.xlsx
+++ b/natmiOut/YoungD2/LR-pairs_lrc2p/Gnas-Vipr1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -455,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T19"/>
+  <dimension ref="A1:T37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -534,55 +534,55 @@
         <v>27</v>
       </c>
       <c r="D2" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>71.6252523452291</v>
+        <v>86.484492</v>
       </c>
       <c r="H2">
-        <v>71.6252523452291</v>
+        <v>259.453476</v>
       </c>
       <c r="I2">
-        <v>0.1058613987222859</v>
+        <v>0.1133842074223504</v>
       </c>
       <c r="J2">
-        <v>0.1058613987222859</v>
+        <v>0.1133842074223504</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L2">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M2">
-        <v>2.26079376281999</v>
+        <v>0.345887</v>
       </c>
       <c r="N2">
-        <v>2.26079376281999</v>
+        <v>1.037661</v>
       </c>
       <c r="O2">
-        <v>0.4863343960516442</v>
+        <v>0.04833359961208697</v>
       </c>
       <c r="P2">
-        <v>0.4863343960516442</v>
+        <v>0.04833359961208697</v>
       </c>
       <c r="Q2">
-        <v>161.9299237625018</v>
+        <v>29.913861484404</v>
       </c>
       <c r="R2">
-        <v>161.9299237625018</v>
+        <v>269.224753359636</v>
       </c>
       <c r="S2">
-        <v>0.05148403941278523</v>
+        <v>0.005480266883885704</v>
       </c>
       <c r="T2">
-        <v>0.05148403941278523</v>
+        <v>0.005480266883885705</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,55 +596,55 @@
         <v>27</v>
       </c>
       <c r="D3" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>71.6252523452291</v>
+        <v>86.484492</v>
       </c>
       <c r="H3">
-        <v>71.6252523452291</v>
+        <v>259.453476</v>
       </c>
       <c r="I3">
-        <v>0.1058613987222859</v>
+        <v>0.1133842074223504</v>
       </c>
       <c r="J3">
-        <v>0.1058613987222859</v>
+        <v>0.1133842074223504</v>
       </c>
       <c r="K3">
         <v>1</v>
       </c>
       <c r="L3">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M3">
-        <v>1.40562171561659</v>
+        <v>0.01969666666666666</v>
       </c>
       <c r="N3">
-        <v>1.40562171561659</v>
+        <v>0.05909</v>
       </c>
       <c r="O3">
-        <v>0.3023726442383592</v>
+        <v>0.002752375198719253</v>
       </c>
       <c r="P3">
-        <v>0.3023726442383592</v>
+        <v>0.002752375198719253</v>
       </c>
       <c r="Q3">
-        <v>100.6780100829721</v>
+        <v>1.70345621076</v>
       </c>
       <c r="R3">
-        <v>100.6780100829721</v>
+        <v>15.33110589684</v>
       </c>
       <c r="S3">
-        <v>0.03200959105442886</v>
+        <v>0.0003120758804357167</v>
       </c>
       <c r="T3">
-        <v>0.03200959105442886</v>
+        <v>0.0003120758804357168</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,60 +658,60 @@
         <v>27</v>
       </c>
       <c r="D4" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>71.6252523452291</v>
+        <v>86.484492</v>
       </c>
       <c r="H4">
-        <v>71.6252523452291</v>
+        <v>259.453476</v>
       </c>
       <c r="I4">
-        <v>0.1058613987222859</v>
+        <v>0.1133842074223504</v>
       </c>
       <c r="J4">
-        <v>0.1058613987222859</v>
+        <v>0.1133842074223504</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L4">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M4">
-        <v>0.982225006740855</v>
+        <v>1.828140666666667</v>
       </c>
       <c r="N4">
-        <v>0.982225006740855</v>
+        <v>5.484422</v>
       </c>
       <c r="O4">
-        <v>0.2112929597099966</v>
+        <v>0.2554609424963656</v>
       </c>
       <c r="P4">
-        <v>0.2112929597099966</v>
+        <v>0.2554609424963656</v>
       </c>
       <c r="Q4">
-        <v>70.35211396760809</v>
+        <v>158.105816861208</v>
       </c>
       <c r="R4">
-        <v>70.35211396760809</v>
+        <v>1422.952351750872</v>
       </c>
       <c r="S4">
-        <v>0.02236776825507186</v>
+        <v>0.02896523649231705</v>
       </c>
       <c r="T4">
-        <v>0.02236776825507186</v>
+        <v>0.02896523649231706</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B5" t="s">
         <v>26</v>
@@ -723,57 +723,57 @@
         <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>156.343810879635</v>
+        <v>86.484492</v>
       </c>
       <c r="H5">
-        <v>156.343810879635</v>
+        <v>259.453476</v>
       </c>
       <c r="I5">
-        <v>0.2310745715982548</v>
+        <v>0.1133842074223504</v>
       </c>
       <c r="J5">
-        <v>0.2310745715982548</v>
+        <v>0.1133842074223504</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>2.26079376281999</v>
+        <v>2.335960333333334</v>
       </c>
       <c r="N5">
-        <v>2.26079376281999</v>
+        <v>7.007881000000001</v>
       </c>
       <c r="O5">
-        <v>0.4863343960516442</v>
+        <v>0.3264227087489572</v>
       </c>
       <c r="P5">
-        <v>0.4863343960516442</v>
+        <v>0.3264227087489572</v>
       </c>
       <c r="Q5">
-        <v>353.4611124921868</v>
+        <v>202.024342760484</v>
       </c>
       <c r="R5">
-        <v>353.4611124921868</v>
+        <v>1818.219084844357</v>
       </c>
       <c r="S5">
-        <v>0.1123795122211297</v>
+        <v>0.03701118011615724</v>
       </c>
       <c r="T5">
-        <v>0.1123795122211297</v>
+        <v>0.03701118011615725</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B6" t="s">
         <v>26</v>
@@ -785,57 +785,57 @@
         <v>24</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>156.343810879635</v>
+        <v>86.484492</v>
       </c>
       <c r="H6">
-        <v>156.343810879635</v>
+        <v>259.453476</v>
       </c>
       <c r="I6">
-        <v>0.2310745715982548</v>
+        <v>0.1133842074223504</v>
       </c>
       <c r="J6">
-        <v>0.2310745715982548</v>
+        <v>0.1133842074223504</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>1.40562171561659</v>
+        <v>1.445826333333333</v>
       </c>
       <c r="N6">
-        <v>1.40562171561659</v>
+        <v>4.337479</v>
       </c>
       <c r="O6">
-        <v>0.3023726442383592</v>
+        <v>0.2020370557550447</v>
       </c>
       <c r="P6">
-        <v>0.3023726442383592</v>
+        <v>0.2020370557550447</v>
       </c>
       <c r="Q6">
-        <v>219.7602556746682</v>
+        <v>125.041555958556</v>
       </c>
       <c r="R6">
-        <v>219.7602556746682</v>
+        <v>1125.374003627004</v>
       </c>
       <c r="S6">
-        <v>0.06987062923041035</v>
+        <v>0.02290781143673096</v>
       </c>
       <c r="T6">
-        <v>0.06987062923041035</v>
+        <v>0.02290781143673096</v>
       </c>
     </row>
     <row r="7" spans="1:20">
       <c r="A7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B7" t="s">
         <v>26</v>
@@ -847,57 +847,57 @@
         <v>25</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>156.343810879635</v>
+        <v>86.484492</v>
       </c>
       <c r="H7">
-        <v>156.343810879635</v>
+        <v>259.453476</v>
       </c>
       <c r="I7">
-        <v>0.2310745715982548</v>
+        <v>0.1133842074223504</v>
       </c>
       <c r="J7">
-        <v>0.2310745715982548</v>
+        <v>0.1133842074223504</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>0.982225006740855</v>
+        <v>1.180732333333333</v>
       </c>
       <c r="N7">
-        <v>0.982225006740855</v>
+        <v>3.542197</v>
       </c>
       <c r="O7">
-        <v>0.2112929597099966</v>
+        <v>0.1649933181888262</v>
       </c>
       <c r="P7">
-        <v>0.2112929597099966</v>
+        <v>0.1649933181888262</v>
       </c>
       <c r="Q7">
-        <v>153.5648006951404</v>
+        <v>102.115036036308</v>
       </c>
       <c r="R7">
-        <v>153.5648006951404</v>
+        <v>919.0353243267721</v>
       </c>
       <c r="S7">
-        <v>0.04882443014671478</v>
+        <v>0.01870763661282373</v>
       </c>
       <c r="T7">
-        <v>0.04882443014671478</v>
+        <v>0.01870763661282374</v>
       </c>
     </row>
     <row r="8" spans="1:20">
       <c r="A8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B8" t="s">
         <v>26</v>
@@ -906,60 +906,60 @@
         <v>27</v>
       </c>
       <c r="D8" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>105.826997092114</v>
+        <v>157.8540903333333</v>
       </c>
       <c r="H8">
-        <v>105.826997092114</v>
+        <v>473.562271</v>
       </c>
       <c r="I8">
-        <v>0.1564112316247455</v>
+        <v>0.206952258224759</v>
       </c>
       <c r="J8">
-        <v>0.1564112316247455</v>
+        <v>0.206952258224759</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L8">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M8">
-        <v>2.26079376281999</v>
+        <v>0.345887</v>
       </c>
       <c r="N8">
-        <v>2.26079376281999</v>
+        <v>1.037661</v>
       </c>
       <c r="O8">
-        <v>0.4863343960516442</v>
+        <v>0.04833359961208697</v>
       </c>
       <c r="P8">
-        <v>0.4863343960516442</v>
+        <v>0.04833359961208697</v>
       </c>
       <c r="Q8">
-        <v>239.2530149638205</v>
+        <v>54.59967774312567</v>
       </c>
       <c r="R8">
-        <v>239.2530149638205</v>
+        <v>491.397099688131</v>
       </c>
       <c r="S8">
-        <v>0.07606816186791444</v>
+        <v>0.01000274758785273</v>
       </c>
       <c r="T8">
-        <v>0.07606816186791444</v>
+        <v>0.01000274758785274</v>
       </c>
     </row>
     <row r="9" spans="1:20">
       <c r="A9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B9" t="s">
         <v>26</v>
@@ -968,122 +968,122 @@
         <v>27</v>
       </c>
       <c r="D9" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>105.826997092114</v>
+        <v>157.8540903333333</v>
       </c>
       <c r="H9">
-        <v>105.826997092114</v>
+        <v>473.562271</v>
       </c>
       <c r="I9">
-        <v>0.1564112316247455</v>
+        <v>0.206952258224759</v>
       </c>
       <c r="J9">
-        <v>0.1564112316247455</v>
+        <v>0.206952258224759</v>
       </c>
       <c r="K9">
         <v>1</v>
       </c>
       <c r="L9">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M9">
-        <v>1.40562171561659</v>
+        <v>0.01969666666666666</v>
       </c>
       <c r="N9">
-        <v>1.40562171561659</v>
+        <v>0.05909</v>
       </c>
       <c r="O9">
-        <v>0.3023726442383592</v>
+        <v>0.002752375198719253</v>
       </c>
       <c r="P9">
-        <v>0.3023726442383592</v>
+        <v>0.002752375198719253</v>
       </c>
       <c r="Q9">
-        <v>148.7527252111691</v>
+        <v>3.109199399265556</v>
       </c>
       <c r="R9">
-        <v>148.7527252111691</v>
+        <v>27.98279459339</v>
       </c>
       <c r="S9">
-        <v>0.04729447769495277</v>
+        <v>0.0005696102628567692</v>
       </c>
       <c r="T9">
-        <v>0.04729447769495277</v>
+        <v>0.0005696102628567694</v>
       </c>
     </row>
     <row r="10" spans="1:20">
       <c r="A10" t="s">
+        <v>21</v>
+      </c>
+      <c r="B10" t="s">
+        <v>26</v>
+      </c>
+      <c r="C10" t="s">
+        <v>27</v>
+      </c>
+      <c r="D10" t="s">
         <v>22</v>
       </c>
-      <c r="B10" t="s">
-        <v>26</v>
-      </c>
-      <c r="C10" t="s">
-        <v>27</v>
-      </c>
-      <c r="D10" t="s">
-        <v>25</v>
-      </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>105.826997092114</v>
+        <v>157.8540903333333</v>
       </c>
       <c r="H10">
-        <v>105.826997092114</v>
+        <v>473.562271</v>
       </c>
       <c r="I10">
-        <v>0.1564112316247455</v>
+        <v>0.206952258224759</v>
       </c>
       <c r="J10">
-        <v>0.1564112316247455</v>
+        <v>0.206952258224759</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L10">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M10">
-        <v>0.982225006740855</v>
+        <v>1.828140666666667</v>
       </c>
       <c r="N10">
-        <v>0.982225006740855</v>
+        <v>5.484422</v>
       </c>
       <c r="O10">
-        <v>0.2112929597099966</v>
+        <v>0.2554609424963656</v>
       </c>
       <c r="P10">
-        <v>0.2112929597099966</v>
+        <v>0.2554609424963656</v>
       </c>
       <c r="Q10">
-        <v>103.9459229321661</v>
+        <v>288.5794819380403</v>
       </c>
       <c r="R10">
-        <v>103.9459229321661</v>
+        <v>2597.215337442362</v>
       </c>
       <c r="S10">
-        <v>0.03304859206187831</v>
+        <v>0.05286821893784818</v>
       </c>
       <c r="T10">
-        <v>0.03304859206187831</v>
+        <v>0.05286821893784818</v>
       </c>
     </row>
     <row r="11" spans="1:20">
       <c r="A11" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B11" t="s">
         <v>26</v>
@@ -1095,57 +1095,57 @@
         <v>23</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>103.868583664288</v>
+        <v>157.8540903333333</v>
       </c>
       <c r="H11">
-        <v>103.868583664288</v>
+        <v>473.562271</v>
       </c>
       <c r="I11">
-        <v>0.1535167163810589</v>
+        <v>0.206952258224759</v>
       </c>
       <c r="J11">
-        <v>0.1535167163810589</v>
+        <v>0.206952258224759</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>2.26079376281999</v>
+        <v>2.335960333333334</v>
       </c>
       <c r="N11">
-        <v>2.26079376281999</v>
+        <v>7.007881000000001</v>
       </c>
       <c r="O11">
-        <v>0.4863343960516442</v>
+        <v>0.3264227087489572</v>
       </c>
       <c r="P11">
-        <v>0.4863343960516442</v>
+        <v>0.3264227087489572</v>
       </c>
       <c r="Q11">
-        <v>234.8254461011686</v>
+        <v>368.7408934730835</v>
       </c>
       <c r="R11">
-        <v>234.8254461011686</v>
+        <v>3318.668041257752</v>
       </c>
       <c r="S11">
-        <v>0.07466045954501382</v>
+        <v>0.0675539167114395</v>
       </c>
       <c r="T11">
-        <v>0.07466045954501382</v>
+        <v>0.06755391671143951</v>
       </c>
     </row>
     <row r="12" spans="1:20">
       <c r="A12" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B12" t="s">
         <v>26</v>
@@ -1157,57 +1157,57 @@
         <v>24</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>103.868583664288</v>
+        <v>157.8540903333333</v>
       </c>
       <c r="H12">
-        <v>103.868583664288</v>
+        <v>473.562271</v>
       </c>
       <c r="I12">
-        <v>0.1535167163810589</v>
+        <v>0.206952258224759</v>
       </c>
       <c r="J12">
-        <v>0.1535167163810589</v>
+        <v>0.206952258224759</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>1.40562171561659</v>
+        <v>1.445826333333333</v>
       </c>
       <c r="N12">
-        <v>1.40562171561659</v>
+        <v>4.337479</v>
       </c>
       <c r="O12">
-        <v>0.3023726442383592</v>
+        <v>0.2020370557550447</v>
       </c>
       <c r="P12">
-        <v>0.3023726442383592</v>
+        <v>0.2020370557550447</v>
       </c>
       <c r="Q12">
-        <v>145.9999367688618</v>
+        <v>228.2296006283121</v>
       </c>
       <c r="R12">
-        <v>145.9999367688618</v>
+        <v>2054.066405654809</v>
       </c>
       <c r="S12">
-        <v>0.04641925546693101</v>
+        <v>0.04181202493358804</v>
       </c>
       <c r="T12">
-        <v>0.04641925546693101</v>
+        <v>0.04181202493358804</v>
       </c>
     </row>
     <row r="13" spans="1:20">
       <c r="A13" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B13" t="s">
         <v>26</v>
@@ -1219,57 +1219,57 @@
         <v>25</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>103.868583664288</v>
+        <v>157.8540903333333</v>
       </c>
       <c r="H13">
-        <v>103.868583664288</v>
+        <v>473.562271</v>
       </c>
       <c r="I13">
-        <v>0.1535167163810589</v>
+        <v>0.206952258224759</v>
       </c>
       <c r="J13">
-        <v>0.1535167163810589</v>
+        <v>0.206952258224759</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>0.982225006740855</v>
+        <v>1.180732333333333</v>
       </c>
       <c r="N13">
-        <v>0.982225006740855</v>
+        <v>3.542197</v>
       </c>
       <c r="O13">
-        <v>0.2112929597099966</v>
+        <v>0.1649933181888262</v>
       </c>
       <c r="P13">
-        <v>0.2112929597099966</v>
+        <v>0.1649933181888262</v>
       </c>
       <c r="Q13">
-        <v>102.0223202898183</v>
+        <v>186.3834284054875</v>
       </c>
       <c r="R13">
-        <v>102.0223202898183</v>
+        <v>1677.450855649387</v>
       </c>
       <c r="S13">
-        <v>0.03243700136911406</v>
+        <v>0.03414573979117379</v>
       </c>
       <c r="T13">
-        <v>0.03243700136911406</v>
+        <v>0.0341457397911738</v>
       </c>
     </row>
     <row r="14" spans="1:20">
       <c r="A14" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B14" t="s">
         <v>26</v>
@@ -1278,60 +1278,60 @@
         <v>27</v>
       </c>
       <c r="D14" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>36.2138542608639</v>
+        <v>107.1200406666667</v>
       </c>
       <c r="H14">
-        <v>36.2138542608639</v>
+        <v>321.360122</v>
       </c>
       <c r="I14">
-        <v>0.05352371041852844</v>
+        <v>0.1404381367013169</v>
       </c>
       <c r="J14">
-        <v>0.05352371041852844</v>
+        <v>0.1404381367013169</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L14">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M14">
-        <v>2.26079376281999</v>
+        <v>0.345887</v>
       </c>
       <c r="N14">
-        <v>2.26079376281999</v>
+        <v>1.037661</v>
       </c>
       <c r="O14">
-        <v>0.4863343960516442</v>
+        <v>0.04833359961208697</v>
       </c>
       <c r="P14">
-        <v>0.4863343960516442</v>
+        <v>0.04833359961208697</v>
       </c>
       <c r="Q14">
-        <v>81.87205584063321</v>
+        <v>37.05142950607134</v>
       </c>
       <c r="R14">
-        <v>81.87205584063321</v>
+        <v>333.462865554642</v>
       </c>
       <c r="S14">
-        <v>0.02603042138083812</v>
+        <v>0.006787880669588985</v>
       </c>
       <c r="T14">
-        <v>0.02603042138083812</v>
+        <v>0.006787880669588986</v>
       </c>
     </row>
     <row r="15" spans="1:20">
       <c r="A15" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B15" t="s">
         <v>26</v>
@@ -1340,60 +1340,60 @@
         <v>27</v>
       </c>
       <c r="D15" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>36.2138542608639</v>
+        <v>107.1200406666667</v>
       </c>
       <c r="H15">
-        <v>36.2138542608639</v>
+        <v>321.360122</v>
       </c>
       <c r="I15">
-        <v>0.05352371041852844</v>
+        <v>0.1404381367013169</v>
       </c>
       <c r="J15">
-        <v>0.05352371041852844</v>
+        <v>0.1404381367013169</v>
       </c>
       <c r="K15">
         <v>1</v>
       </c>
       <c r="L15">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M15">
-        <v>1.40562171561659</v>
+        <v>0.01969666666666666</v>
       </c>
       <c r="N15">
-        <v>1.40562171561659</v>
+        <v>0.05909</v>
       </c>
       <c r="O15">
-        <v>0.3023726442383592</v>
+        <v>0.002752375198719253</v>
       </c>
       <c r="P15">
-        <v>0.3023726442383592</v>
+        <v>0.002752375198719253</v>
       </c>
       <c r="Q15">
-        <v>50.90297995524467</v>
+        <v>2.109907734331111</v>
       </c>
       <c r="R15">
-        <v>50.90297995524467</v>
+        <v>18.98916960898</v>
       </c>
       <c r="S15">
-        <v>0.01618410584869866</v>
+        <v>0.0003865384444110486</v>
       </c>
       <c r="T15">
-        <v>0.01618410584869866</v>
+        <v>0.0003865384444110487</v>
       </c>
     </row>
     <row r="16" spans="1:20">
       <c r="A16" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B16" t="s">
         <v>26</v>
@@ -1402,60 +1402,60 @@
         <v>27</v>
       </c>
       <c r="D16" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>36.2138542608639</v>
+        <v>107.1200406666667</v>
       </c>
       <c r="H16">
-        <v>36.2138542608639</v>
+        <v>321.360122</v>
       </c>
       <c r="I16">
-        <v>0.05352371041852844</v>
+        <v>0.1404381367013169</v>
       </c>
       <c r="J16">
-        <v>0.05352371041852844</v>
+        <v>0.1404381367013169</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L16">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M16">
-        <v>0.982225006740855</v>
+        <v>1.828140666666667</v>
       </c>
       <c r="N16">
-        <v>0.982225006740855</v>
+        <v>5.484422</v>
       </c>
       <c r="O16">
-        <v>0.2112929597099966</v>
+        <v>0.2554609424963656</v>
       </c>
       <c r="P16">
-        <v>0.2112929597099966</v>
+        <v>0.2554609424963656</v>
       </c>
       <c r="Q16">
-        <v>35.57015324548938</v>
+        <v>195.8305025577205</v>
       </c>
       <c r="R16">
-        <v>35.57015324548938</v>
+        <v>1762.474523019484</v>
       </c>
       <c r="S16">
-        <v>0.01130918318899166</v>
+        <v>0.03587645876415184</v>
       </c>
       <c r="T16">
-        <v>0.01130918318899166</v>
+        <v>0.03587645876415185</v>
       </c>
     </row>
     <row r="17" spans="1:20">
       <c r="A17" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="B17" t="s">
         <v>26</v>
@@ -1467,57 +1467,57 @@
         <v>23</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>202.716117073023</v>
+        <v>107.1200406666667</v>
       </c>
       <c r="H17">
-        <v>202.716117073023</v>
+        <v>321.360122</v>
       </c>
       <c r="I17">
-        <v>0.2996123712551263</v>
+        <v>0.1404381367013169</v>
       </c>
       <c r="J17">
-        <v>0.2996123712551263</v>
+        <v>0.1404381367013169</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>2.26079376281999</v>
+        <v>2.335960333333334</v>
       </c>
       <c r="N17">
-        <v>2.26079376281999</v>
+        <v>7.007881000000001</v>
       </c>
       <c r="O17">
-        <v>0.4863343960516442</v>
+        <v>0.3264227087489572</v>
       </c>
       <c r="P17">
-        <v>0.4863343960516442</v>
+        <v>0.3264227087489572</v>
       </c>
       <c r="Q17">
-        <v>458.2993331017773</v>
+        <v>250.228165902387</v>
       </c>
       <c r="R17">
-        <v>458.2993331017773</v>
+        <v>2252.053493121482</v>
       </c>
       <c r="S17">
-        <v>0.1457118016239629</v>
+        <v>0.04584219699370019</v>
       </c>
       <c r="T17">
-        <v>0.1457118016239629</v>
+        <v>0.0458421969937002</v>
       </c>
     </row>
     <row r="18" spans="1:20">
       <c r="A18" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="B18" t="s">
         <v>26</v>
@@ -1529,57 +1529,57 @@
         <v>24</v>
       </c>
       <c r="E18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F18">
         <v>1</v>
       </c>
       <c r="G18">
-        <v>202.716117073023</v>
+        <v>107.1200406666667</v>
       </c>
       <c r="H18">
-        <v>202.716117073023</v>
+        <v>321.360122</v>
       </c>
       <c r="I18">
-        <v>0.2996123712551263</v>
+        <v>0.1404381367013169</v>
       </c>
       <c r="J18">
-        <v>0.2996123712551263</v>
+        <v>0.1404381367013169</v>
       </c>
       <c r="K18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L18">
         <v>1</v>
       </c>
       <c r="M18">
-        <v>1.40562171561659</v>
+        <v>1.445826333333333</v>
       </c>
       <c r="N18">
-        <v>1.40562171561659</v>
+        <v>4.337479</v>
       </c>
       <c r="O18">
-        <v>0.3023726442383592</v>
+        <v>0.2020370557550447</v>
       </c>
       <c r="P18">
-        <v>0.3023726442383592</v>
+        <v>0.2020370557550447</v>
       </c>
       <c r="Q18">
-        <v>284.9421762633161</v>
+        <v>154.8769756236042</v>
       </c>
       <c r="R18">
-        <v>284.9421762633161</v>
+        <v>1393.892780612438</v>
       </c>
       <c r="S18">
-        <v>0.0905945849429375</v>
+        <v>0.02837370765485854</v>
       </c>
       <c r="T18">
-        <v>0.0905945849429375</v>
+        <v>0.02837370765485854</v>
       </c>
     </row>
     <row r="19" spans="1:20">
       <c r="A19" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="B19" t="s">
         <v>26</v>
@@ -1591,52 +1591,1168 @@
         <v>25</v>
       </c>
       <c r="E19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F19">
         <v>1</v>
       </c>
       <c r="G19">
-        <v>202.716117073023</v>
+        <v>107.1200406666667</v>
       </c>
       <c r="H19">
-        <v>202.716117073023</v>
+        <v>321.360122</v>
       </c>
       <c r="I19">
-        <v>0.2996123712551263</v>
+        <v>0.1404381367013169</v>
       </c>
       <c r="J19">
-        <v>0.2996123712551263</v>
+        <v>0.1404381367013169</v>
       </c>
       <c r="K19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L19">
         <v>1</v>
       </c>
       <c r="M19">
-        <v>0.982225006740855</v>
+        <v>1.180732333333333</v>
       </c>
       <c r="N19">
-        <v>0.982225006740855</v>
+        <v>3.542197</v>
       </c>
       <c r="O19">
-        <v>0.2112929597099966</v>
+        <v>0.1649933181888262</v>
       </c>
       <c r="P19">
-        <v>0.2112929597099966</v>
+        <v>0.1649933181888262</v>
       </c>
       <c r="Q19">
-        <v>199.11283945853</v>
+        <v>126.4800955631149</v>
       </c>
       <c r="R19">
-        <v>199.11283945853</v>
+        <v>1138.320860068034</v>
       </c>
       <c r="S19">
-        <v>0.06330598468822596</v>
+        <v>0.02317135417460625</v>
       </c>
       <c r="T19">
-        <v>0.06330598468822596</v>
+        <v>0.02317135417460625</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" t="s">
+        <v>23</v>
+      </c>
+      <c r="B20" t="s">
+        <v>26</v>
+      </c>
+      <c r="C20" t="s">
+        <v>27</v>
+      </c>
+      <c r="D20" t="s">
+        <v>20</v>
+      </c>
+      <c r="E20">
+        <v>3</v>
+      </c>
+      <c r="F20">
+        <v>1</v>
+      </c>
+      <c r="G20">
+        <v>104.2030356666667</v>
+      </c>
+      <c r="H20">
+        <v>312.609107</v>
+      </c>
+      <c r="I20">
+        <v>0.1366138406648433</v>
+      </c>
+      <c r="J20">
+        <v>0.1366138406648433</v>
+      </c>
+      <c r="K20">
+        <v>2</v>
+      </c>
+      <c r="L20">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M20">
+        <v>0.345887</v>
+      </c>
+      <c r="N20">
+        <v>1.037661</v>
+      </c>
+      <c r="O20">
+        <v>0.04833359961208697</v>
+      </c>
+      <c r="P20">
+        <v>0.04833359961208697</v>
+      </c>
+      <c r="Q20">
+        <v>36.04247539763633</v>
+      </c>
+      <c r="R20">
+        <v>324.382278578727</v>
+      </c>
+      <c r="S20">
+        <v>0.006603038676163978</v>
+      </c>
+      <c r="T20">
+        <v>0.00660303867616398</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" t="s">
+        <v>23</v>
+      </c>
+      <c r="B21" t="s">
+        <v>26</v>
+      </c>
+      <c r="C21" t="s">
+        <v>27</v>
+      </c>
+      <c r="D21" t="s">
+        <v>21</v>
+      </c>
+      <c r="E21">
+        <v>3</v>
+      </c>
+      <c r="F21">
+        <v>1</v>
+      </c>
+      <c r="G21">
+        <v>104.2030356666667</v>
+      </c>
+      <c r="H21">
+        <v>312.609107</v>
+      </c>
+      <c r="I21">
+        <v>0.1366138406648433</v>
+      </c>
+      <c r="J21">
+        <v>0.1366138406648433</v>
+      </c>
+      <c r="K21">
+        <v>1</v>
+      </c>
+      <c r="L21">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M21">
+        <v>0.01969666666666666</v>
+      </c>
+      <c r="N21">
+        <v>0.05909</v>
+      </c>
+      <c r="O21">
+        <v>0.002752375198719253</v>
+      </c>
+      <c r="P21">
+        <v>0.002752375198719253</v>
+      </c>
+      <c r="Q21">
+        <v>2.052452459181111</v>
+      </c>
+      <c r="R21">
+        <v>18.47207213263</v>
+      </c>
+      <c r="S21">
+        <v>0.0003760125468476983</v>
+      </c>
+      <c r="T21">
+        <v>0.0003760125468476984</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
+      <c r="A22" t="s">
+        <v>23</v>
+      </c>
+      <c r="B22" t="s">
+        <v>26</v>
+      </c>
+      <c r="C22" t="s">
+        <v>27</v>
+      </c>
+      <c r="D22" t="s">
+        <v>22</v>
+      </c>
+      <c r="E22">
+        <v>3</v>
+      </c>
+      <c r="F22">
+        <v>1</v>
+      </c>
+      <c r="G22">
+        <v>104.2030356666667</v>
+      </c>
+      <c r="H22">
+        <v>312.609107</v>
+      </c>
+      <c r="I22">
+        <v>0.1366138406648433</v>
+      </c>
+      <c r="J22">
+        <v>0.1366138406648433</v>
+      </c>
+      <c r="K22">
+        <v>2</v>
+      </c>
+      <c r="L22">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M22">
+        <v>1.828140666666667</v>
+      </c>
+      <c r="N22">
+        <v>5.484422</v>
+      </c>
+      <c r="O22">
+        <v>0.2554609424963656</v>
+      </c>
+      <c r="P22">
+        <v>0.2554609424963656</v>
+      </c>
+      <c r="Q22">
+        <v>190.4978070923505</v>
+      </c>
+      <c r="R22">
+        <v>1714.480263831154</v>
+      </c>
+      <c r="S22">
+        <v>0.03489950049428918</v>
+      </c>
+      <c r="T22">
+        <v>0.03489950049428919</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
+      <c r="A23" t="s">
+        <v>23</v>
+      </c>
+      <c r="B23" t="s">
+        <v>26</v>
+      </c>
+      <c r="C23" t="s">
+        <v>27</v>
+      </c>
+      <c r="D23" t="s">
+        <v>23</v>
+      </c>
+      <c r="E23">
+        <v>3</v>
+      </c>
+      <c r="F23">
+        <v>1</v>
+      </c>
+      <c r="G23">
+        <v>104.2030356666667</v>
+      </c>
+      <c r="H23">
+        <v>312.609107</v>
+      </c>
+      <c r="I23">
+        <v>0.1366138406648433</v>
+      </c>
+      <c r="J23">
+        <v>0.1366138406648433</v>
+      </c>
+      <c r="K23">
+        <v>3</v>
+      </c>
+      <c r="L23">
+        <v>1</v>
+      </c>
+      <c r="M23">
+        <v>2.335960333333334</v>
+      </c>
+      <c r="N23">
+        <v>7.007881000000001</v>
+      </c>
+      <c r="O23">
+        <v>0.3264227087489572</v>
+      </c>
+      <c r="P23">
+        <v>0.3264227087489572</v>
+      </c>
+      <c r="Q23">
+        <v>243.4141579302519</v>
+      </c>
+      <c r="R23">
+        <v>2190.727421372267</v>
+      </c>
+      <c r="S23">
+        <v>0.04459385992241658</v>
+      </c>
+      <c r="T23">
+        <v>0.04459385992241659</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
+      <c r="A24" t="s">
+        <v>23</v>
+      </c>
+      <c r="B24" t="s">
+        <v>26</v>
+      </c>
+      <c r="C24" t="s">
+        <v>27</v>
+      </c>
+      <c r="D24" t="s">
+        <v>24</v>
+      </c>
+      <c r="E24">
+        <v>3</v>
+      </c>
+      <c r="F24">
+        <v>1</v>
+      </c>
+      <c r="G24">
+        <v>104.2030356666667</v>
+      </c>
+      <c r="H24">
+        <v>312.609107</v>
+      </c>
+      <c r="I24">
+        <v>0.1366138406648433</v>
+      </c>
+      <c r="J24">
+        <v>0.1366138406648433</v>
+      </c>
+      <c r="K24">
+        <v>3</v>
+      </c>
+      <c r="L24">
+        <v>1</v>
+      </c>
+      <c r="M24">
+        <v>1.445826333333333</v>
+      </c>
+      <c r="N24">
+        <v>4.337479</v>
+      </c>
+      <c r="O24">
+        <v>0.2020370557550447</v>
+      </c>
+      <c r="P24">
+        <v>0.2020370557550447</v>
+      </c>
+      <c r="Q24">
+        <v>150.6594929801392</v>
+      </c>
+      <c r="R24">
+        <v>1355.935436821253</v>
+      </c>
+      <c r="S24">
+        <v>0.02760105814331372</v>
+      </c>
+      <c r="T24">
+        <v>0.02760105814331373</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
+      <c r="A25" t="s">
+        <v>23</v>
+      </c>
+      <c r="B25" t="s">
+        <v>26</v>
+      </c>
+      <c r="C25" t="s">
+        <v>27</v>
+      </c>
+      <c r="D25" t="s">
+        <v>25</v>
+      </c>
+      <c r="E25">
+        <v>3</v>
+      </c>
+      <c r="F25">
+        <v>1</v>
+      </c>
+      <c r="G25">
+        <v>104.2030356666667</v>
+      </c>
+      <c r="H25">
+        <v>312.609107</v>
+      </c>
+      <c r="I25">
+        <v>0.1366138406648433</v>
+      </c>
+      <c r="J25">
+        <v>0.1366138406648433</v>
+      </c>
+      <c r="K25">
+        <v>3</v>
+      </c>
+      <c r="L25">
+        <v>1</v>
+      </c>
+      <c r="M25">
+        <v>1.180732333333333</v>
+      </c>
+      <c r="N25">
+        <v>3.542197</v>
+      </c>
+      <c r="O25">
+        <v>0.1649933181888262</v>
+      </c>
+      <c r="P25">
+        <v>0.1649933181888262</v>
+      </c>
+      <c r="Q25">
+        <v>123.0358934431199</v>
+      </c>
+      <c r="R25">
+        <v>1107.323040988079</v>
+      </c>
+      <c r="S25">
+        <v>0.02254037088181209</v>
+      </c>
+      <c r="T25">
+        <v>0.0225403708818121</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20">
+      <c r="A26" t="s">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>26</v>
+      </c>
+      <c r="C26" t="s">
+        <v>27</v>
+      </c>
+      <c r="D26" t="s">
+        <v>20</v>
+      </c>
+      <c r="E26">
+        <v>3</v>
+      </c>
+      <c r="F26">
+        <v>1</v>
+      </c>
+      <c r="G26">
+        <v>36.59512433333333</v>
+      </c>
+      <c r="H26">
+        <v>109.785373</v>
+      </c>
+      <c r="I26">
+        <v>0.04797749367663938</v>
+      </c>
+      <c r="J26">
+        <v>0.04797749367663939</v>
+      </c>
+      <c r="K26">
+        <v>2</v>
+      </c>
+      <c r="L26">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M26">
+        <v>0.345887</v>
+      </c>
+      <c r="N26">
+        <v>1.037661</v>
+      </c>
+      <c r="O26">
+        <v>0.04833359961208697</v>
+      </c>
+      <c r="P26">
+        <v>0.04833359961208697</v>
+      </c>
+      <c r="Q26">
+        <v>12.65777777028367</v>
+      </c>
+      <c r="R26">
+        <v>113.919999932553</v>
+      </c>
+      <c r="S26">
+        <v>0.002318924969758122</v>
+      </c>
+      <c r="T26">
+        <v>0.002318924969758122</v>
+      </c>
+    </row>
+    <row r="27" spans="1:20">
+      <c r="A27" t="s">
+        <v>24</v>
+      </c>
+      <c r="B27" t="s">
+        <v>26</v>
+      </c>
+      <c r="C27" t="s">
+        <v>27</v>
+      </c>
+      <c r="D27" t="s">
+        <v>21</v>
+      </c>
+      <c r="E27">
+        <v>3</v>
+      </c>
+      <c r="F27">
+        <v>1</v>
+      </c>
+      <c r="G27">
+        <v>36.59512433333333</v>
+      </c>
+      <c r="H27">
+        <v>109.785373</v>
+      </c>
+      <c r="I27">
+        <v>0.04797749367663938</v>
+      </c>
+      <c r="J27">
+        <v>0.04797749367663939</v>
+      </c>
+      <c r="K27">
+        <v>1</v>
+      </c>
+      <c r="L27">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M27">
+        <v>0.01969666666666666</v>
+      </c>
+      <c r="N27">
+        <v>0.05909</v>
+      </c>
+      <c r="O27">
+        <v>0.002752375198719253</v>
+      </c>
+      <c r="P27">
+        <v>0.002752375198719253</v>
+      </c>
+      <c r="Q27">
+        <v>0.7208019656188888</v>
+      </c>
+      <c r="R27">
+        <v>6.48721769057</v>
+      </c>
+      <c r="S27">
+        <v>0.000132052063692292</v>
+      </c>
+      <c r="T27">
+        <v>0.000132052063692292</v>
+      </c>
+    </row>
+    <row r="28" spans="1:20">
+      <c r="A28" t="s">
+        <v>24</v>
+      </c>
+      <c r="B28" t="s">
+        <v>26</v>
+      </c>
+      <c r="C28" t="s">
+        <v>27</v>
+      </c>
+      <c r="D28" t="s">
+        <v>22</v>
+      </c>
+      <c r="E28">
+        <v>3</v>
+      </c>
+      <c r="F28">
+        <v>1</v>
+      </c>
+      <c r="G28">
+        <v>36.59512433333333</v>
+      </c>
+      <c r="H28">
+        <v>109.785373</v>
+      </c>
+      <c r="I28">
+        <v>0.04797749367663938</v>
+      </c>
+      <c r="J28">
+        <v>0.04797749367663939</v>
+      </c>
+      <c r="K28">
+        <v>2</v>
+      </c>
+      <c r="L28">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M28">
+        <v>1.828140666666667</v>
+      </c>
+      <c r="N28">
+        <v>5.484422</v>
+      </c>
+      <c r="O28">
+        <v>0.2554609424963656</v>
+      </c>
+      <c r="P28">
+        <v>0.2554609424963656</v>
+      </c>
+      <c r="Q28">
+        <v>66.90103499548955</v>
+      </c>
+      <c r="R28">
+        <v>602.109314959406</v>
+      </c>
+      <c r="S28">
+        <v>0.01225637575324772</v>
+      </c>
+      <c r="T28">
+        <v>0.01225637575324772</v>
+      </c>
+    </row>
+    <row r="29" spans="1:20">
+      <c r="A29" t="s">
+        <v>24</v>
+      </c>
+      <c r="B29" t="s">
+        <v>26</v>
+      </c>
+      <c r="C29" t="s">
+        <v>27</v>
+      </c>
+      <c r="D29" t="s">
+        <v>23</v>
+      </c>
+      <c r="E29">
+        <v>3</v>
+      </c>
+      <c r="F29">
+        <v>1</v>
+      </c>
+      <c r="G29">
+        <v>36.59512433333333</v>
+      </c>
+      <c r="H29">
+        <v>109.785373</v>
+      </c>
+      <c r="I29">
+        <v>0.04797749367663938</v>
+      </c>
+      <c r="J29">
+        <v>0.04797749367663939</v>
+      </c>
+      <c r="K29">
+        <v>3</v>
+      </c>
+      <c r="L29">
+        <v>1</v>
+      </c>
+      <c r="M29">
+        <v>2.335960333333334</v>
+      </c>
+      <c r="N29">
+        <v>7.007881000000001</v>
+      </c>
+      <c r="O29">
+        <v>0.3264227087489572</v>
+      </c>
+      <c r="P29">
+        <v>0.3264227087489572</v>
+      </c>
+      <c r="Q29">
+        <v>85.48475883606812</v>
+      </c>
+      <c r="R29">
+        <v>769.3628295246131</v>
+      </c>
+      <c r="S29">
+        <v>0.01566094344491459</v>
+      </c>
+      <c r="T29">
+        <v>0.01566094344491459</v>
+      </c>
+    </row>
+    <row r="30" spans="1:20">
+      <c r="A30" t="s">
+        <v>24</v>
+      </c>
+      <c r="B30" t="s">
+        <v>26</v>
+      </c>
+      <c r="C30" t="s">
+        <v>27</v>
+      </c>
+      <c r="D30" t="s">
+        <v>24</v>
+      </c>
+      <c r="E30">
+        <v>3</v>
+      </c>
+      <c r="F30">
+        <v>1</v>
+      </c>
+      <c r="G30">
+        <v>36.59512433333333</v>
+      </c>
+      <c r="H30">
+        <v>109.785373</v>
+      </c>
+      <c r="I30">
+        <v>0.04797749367663938</v>
+      </c>
+      <c r="J30">
+        <v>0.04797749367663939</v>
+      </c>
+      <c r="K30">
+        <v>3</v>
+      </c>
+      <c r="L30">
+        <v>1</v>
+      </c>
+      <c r="M30">
+        <v>1.445826333333333</v>
+      </c>
+      <c r="N30">
+        <v>4.337479</v>
+      </c>
+      <c r="O30">
+        <v>0.2020370557550447</v>
+      </c>
+      <c r="P30">
+        <v>0.2020370557550447</v>
+      </c>
+      <c r="Q30">
+        <v>52.91019443274078</v>
+      </c>
+      <c r="R30">
+        <v>476.191749894667</v>
+      </c>
+      <c r="S30">
+        <v>0.009693231564934493</v>
+      </c>
+      <c r="T30">
+        <v>0.009693231564934495</v>
+      </c>
+    </row>
+    <row r="31" spans="1:20">
+      <c r="A31" t="s">
+        <v>24</v>
+      </c>
+      <c r="B31" t="s">
+        <v>26</v>
+      </c>
+      <c r="C31" t="s">
+        <v>27</v>
+      </c>
+      <c r="D31" t="s">
+        <v>25</v>
+      </c>
+      <c r="E31">
+        <v>3</v>
+      </c>
+      <c r="F31">
+        <v>1</v>
+      </c>
+      <c r="G31">
+        <v>36.59512433333333</v>
+      </c>
+      <c r="H31">
+        <v>109.785373</v>
+      </c>
+      <c r="I31">
+        <v>0.04797749367663938</v>
+      </c>
+      <c r="J31">
+        <v>0.04797749367663939</v>
+      </c>
+      <c r="K31">
+        <v>3</v>
+      </c>
+      <c r="L31">
+        <v>1</v>
+      </c>
+      <c r="M31">
+        <v>1.180732333333333</v>
+      </c>
+      <c r="N31">
+        <v>3.542197</v>
+      </c>
+      <c r="O31">
+        <v>0.1649933181888262</v>
+      </c>
+      <c r="P31">
+        <v>0.1649933181888262</v>
+      </c>
+      <c r="Q31">
+        <v>43.20904654272011</v>
+      </c>
+      <c r="R31">
+        <v>388.881418884481</v>
+      </c>
+      <c r="S31">
+        <v>0.007915965880092159</v>
+      </c>
+      <c r="T31">
+        <v>0.007915965880092161</v>
+      </c>
+    </row>
+    <row r="32" spans="1:20">
+      <c r="A32" t="s">
+        <v>25</v>
+      </c>
+      <c r="B32" t="s">
+        <v>26</v>
+      </c>
+      <c r="C32" t="s">
+        <v>27</v>
+      </c>
+      <c r="D32" t="s">
+        <v>20</v>
+      </c>
+      <c r="E32">
+        <v>3</v>
+      </c>
+      <c r="F32">
+        <v>1</v>
+      </c>
+      <c r="G32">
+        <v>270.499283</v>
+      </c>
+      <c r="H32">
+        <v>811.497849</v>
+      </c>
+      <c r="I32">
+        <v>0.3546340633100911</v>
+      </c>
+      <c r="J32">
+        <v>0.3546340633100911</v>
+      </c>
+      <c r="K32">
+        <v>2</v>
+      </c>
+      <c r="L32">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M32">
+        <v>0.345887</v>
+      </c>
+      <c r="N32">
+        <v>1.037661</v>
+      </c>
+      <c r="O32">
+        <v>0.04833359961208697</v>
+      </c>
+      <c r="P32">
+        <v>0.04833359961208697</v>
+      </c>
+      <c r="Q32">
+        <v>93.562185499021</v>
+      </c>
+      <c r="R32">
+        <v>842.059669491189</v>
+      </c>
+      <c r="S32">
+        <v>0.01714074082483744</v>
+      </c>
+      <c r="T32">
+        <v>0.01714074082483745</v>
+      </c>
+    </row>
+    <row r="33" spans="1:20">
+      <c r="A33" t="s">
+        <v>25</v>
+      </c>
+      <c r="B33" t="s">
+        <v>26</v>
+      </c>
+      <c r="C33" t="s">
+        <v>27</v>
+      </c>
+      <c r="D33" t="s">
+        <v>21</v>
+      </c>
+      <c r="E33">
+        <v>3</v>
+      </c>
+      <c r="F33">
+        <v>1</v>
+      </c>
+      <c r="G33">
+        <v>270.499283</v>
+      </c>
+      <c r="H33">
+        <v>811.497849</v>
+      </c>
+      <c r="I33">
+        <v>0.3546340633100911</v>
+      </c>
+      <c r="J33">
+        <v>0.3546340633100911</v>
+      </c>
+      <c r="K33">
+        <v>1</v>
+      </c>
+      <c r="L33">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M33">
+        <v>0.01969666666666666</v>
+      </c>
+      <c r="N33">
+        <v>0.05909</v>
+      </c>
+      <c r="O33">
+        <v>0.002752375198719253</v>
+      </c>
+      <c r="P33">
+        <v>0.002752375198719253</v>
+      </c>
+      <c r="Q33">
+        <v>5.327934210823333</v>
+      </c>
+      <c r="R33">
+        <v>47.95140789740999</v>
+      </c>
+      <c r="S33">
+        <v>0.000976086000475728</v>
+      </c>
+      <c r="T33">
+        <v>0.0009760860004757283</v>
+      </c>
+    </row>
+    <row r="34" spans="1:20">
+      <c r="A34" t="s">
+        <v>25</v>
+      </c>
+      <c r="B34" t="s">
+        <v>26</v>
+      </c>
+      <c r="C34" t="s">
+        <v>27</v>
+      </c>
+      <c r="D34" t="s">
+        <v>22</v>
+      </c>
+      <c r="E34">
+        <v>3</v>
+      </c>
+      <c r="F34">
+        <v>1</v>
+      </c>
+      <c r="G34">
+        <v>270.499283</v>
+      </c>
+      <c r="H34">
+        <v>811.497849</v>
+      </c>
+      <c r="I34">
+        <v>0.3546340633100911</v>
+      </c>
+      <c r="J34">
+        <v>0.3546340633100911</v>
+      </c>
+      <c r="K34">
+        <v>2</v>
+      </c>
+      <c r="L34">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M34">
+        <v>1.828140666666667</v>
+      </c>
+      <c r="N34">
+        <v>5.484422</v>
+      </c>
+      <c r="O34">
+        <v>0.2554609424963656</v>
+      </c>
+      <c r="P34">
+        <v>0.2554609424963656</v>
+      </c>
+      <c r="Q34">
+        <v>494.5107395564754</v>
+      </c>
+      <c r="R34">
+        <v>4450.596656008278</v>
+      </c>
+      <c r="S34">
+        <v>0.09059515205451167</v>
+      </c>
+      <c r="T34">
+        <v>0.09059515205451169</v>
+      </c>
+    </row>
+    <row r="35" spans="1:20">
+      <c r="A35" t="s">
+        <v>25</v>
+      </c>
+      <c r="B35" t="s">
+        <v>26</v>
+      </c>
+      <c r="C35" t="s">
+        <v>27</v>
+      </c>
+      <c r="D35" t="s">
+        <v>23</v>
+      </c>
+      <c r="E35">
+        <v>3</v>
+      </c>
+      <c r="F35">
+        <v>1</v>
+      </c>
+      <c r="G35">
+        <v>270.499283</v>
+      </c>
+      <c r="H35">
+        <v>811.497849</v>
+      </c>
+      <c r="I35">
+        <v>0.3546340633100911</v>
+      </c>
+      <c r="J35">
+        <v>0.3546340633100911</v>
+      </c>
+      <c r="K35">
+        <v>3</v>
+      </c>
+      <c r="L35">
+        <v>1</v>
+      </c>
+      <c r="M35">
+        <v>2.335960333333334</v>
+      </c>
+      <c r="N35">
+        <v>7.007881000000001</v>
+      </c>
+      <c r="O35">
+        <v>0.3264227087489572</v>
+      </c>
+      <c r="P35">
+        <v>0.3264227087489572</v>
+      </c>
+      <c r="Q35">
+        <v>631.8755952831078</v>
+      </c>
+      <c r="R35">
+        <v>5686.88035754797</v>
+      </c>
+      <c r="S35">
+        <v>0.1157606115603291</v>
+      </c>
+      <c r="T35">
+        <v>0.1157606115603291</v>
+      </c>
+    </row>
+    <row r="36" spans="1:20">
+      <c r="A36" t="s">
+        <v>25</v>
+      </c>
+      <c r="B36" t="s">
+        <v>26</v>
+      </c>
+      <c r="C36" t="s">
+        <v>27</v>
+      </c>
+      <c r="D36" t="s">
+        <v>24</v>
+      </c>
+      <c r="E36">
+        <v>3</v>
+      </c>
+      <c r="F36">
+        <v>1</v>
+      </c>
+      <c r="G36">
+        <v>270.499283</v>
+      </c>
+      <c r="H36">
+        <v>811.497849</v>
+      </c>
+      <c r="I36">
+        <v>0.3546340633100911</v>
+      </c>
+      <c r="J36">
+        <v>0.3546340633100911</v>
+      </c>
+      <c r="K36">
+        <v>3</v>
+      </c>
+      <c r="L36">
+        <v>1</v>
+      </c>
+      <c r="M36">
+        <v>1.445826333333333</v>
+      </c>
+      <c r="N36">
+        <v>4.337479</v>
+      </c>
+      <c r="O36">
+        <v>0.2020370557550447</v>
+      </c>
+      <c r="P36">
+        <v>0.2020370557550447</v>
+      </c>
+      <c r="Q36">
+        <v>391.0949865091857</v>
+      </c>
+      <c r="R36">
+        <v>3519.854878582671</v>
+      </c>
+      <c r="S36">
+        <v>0.0716492220216189</v>
+      </c>
+      <c r="T36">
+        <v>0.07164922202161891</v>
+      </c>
+    </row>
+    <row r="37" spans="1:20">
+      <c r="A37" t="s">
+        <v>25</v>
+      </c>
+      <c r="B37" t="s">
+        <v>26</v>
+      </c>
+      <c r="C37" t="s">
+        <v>27</v>
+      </c>
+      <c r="D37" t="s">
+        <v>25</v>
+      </c>
+      <c r="E37">
+        <v>3</v>
+      </c>
+      <c r="F37">
+        <v>1</v>
+      </c>
+      <c r="G37">
+        <v>270.499283</v>
+      </c>
+      <c r="H37">
+        <v>811.497849</v>
+      </c>
+      <c r="I37">
+        <v>0.3546340633100911</v>
+      </c>
+      <c r="J37">
+        <v>0.3546340633100911</v>
+      </c>
+      <c r="K37">
+        <v>3</v>
+      </c>
+      <c r="L37">
+        <v>1</v>
+      </c>
+      <c r="M37">
+        <v>1.180732333333333</v>
+      </c>
+      <c r="N37">
+        <v>3.542197</v>
+      </c>
+      <c r="O37">
+        <v>0.1649933181888262</v>
+      </c>
+      <c r="P37">
+        <v>0.1649933181888262</v>
+      </c>
+      <c r="Q37">
+        <v>319.3872495815837</v>
+      </c>
+      <c r="R37">
+        <v>2874.485246234253</v>
+      </c>
+      <c r="S37">
+        <v>0.0585122508483182</v>
+      </c>
+      <c r="T37">
+        <v>0.05851225084831821</v>
       </c>
     </row>
   </sheetData>
